--- a/tests/data/output/multireports/test_soliddist_ave_std.xlsx
+++ b/tests/data/output/multireports/test_soliddist_ave_std.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,44 +457,44 @@
     <row r="1">
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>453 ± 0 K</t>
+          <t>193 ± 0 C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>615 ± 0 K</t>
+          <t>221 ± 0 C</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>799 ± 0 K</t>
+          <t>306 ± 0 C</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>736 ± 0 K</t>
+          <t>405 ± 0 C</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>816 ± 0 K</t>
+          <t>504 ± 0 C</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>703 ± 0 K</t>
+          <t>602 ± 0 C</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>1213 ± 0 K</t>
+          <t>950 ± 0 C</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>cell</t>
+          <t>sda</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -503,25 +503,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01142679487171468</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.882090650036138</v>
+        <v>0.4166258433993495</v>
       </c>
       <c r="E2" t="n">
-        <v>86.06658982975802</v>
+        <v>50.20457869572414</v>
       </c>
       <c r="F2" t="n">
-        <v>12.97174942342479</v>
+        <v>36.5780526929817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001313282753675563</v>
+        <v>2.034047871948311</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006659998888863314</v>
+        <v>0.8155484133320611</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06013245067919124</v>
+        <v>9.931500939737228</v>
       </c>
     </row>
     <row r="3">
@@ -532,31 +532,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.00645390580442647</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06246463872202912</v>
+        <v>0.02654165461781827</v>
       </c>
       <c r="E3" t="n">
-        <v>1.399579971482414</v>
+        <v>1.472388177212755</v>
       </c>
       <c r="F3" t="n">
-        <v>1.478150931796055</v>
+        <v>1.057099091594327</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004331547572062257</v>
+        <v>0.0953846791847875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01115318557472112</v>
+        <v>0.04925479961884688</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02097663946609244</v>
+        <v>0.5624425900075766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>sdb</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -565,25 +565,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1892146296970338</v>
       </c>
       <c r="D4" t="n">
-        <v>76.0844003211735</v>
+        <v>2.827096842800856</v>
       </c>
       <c r="E4" t="n">
-        <v>6.473010519441161</v>
+        <v>7.918780253668094</v>
       </c>
       <c r="F4" t="n">
-        <v>1.009744855336255</v>
+        <v>19.75446688346356</v>
       </c>
       <c r="G4" t="n">
-        <v>16.30579283935348</v>
+        <v>10.48904016372678</v>
       </c>
       <c r="H4" t="n">
-        <v>-99.87294853530439</v>
+        <v>3.439158865997759</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>54.82645265232387</v>
       </c>
     </row>
     <row r="5">
@@ -594,220 +594,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.03950529753114395</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7168288494196422</v>
+        <v>0.4139445177857045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3776271837023604</v>
+        <v>0.2401255593003083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07950288680660357</v>
+        <v>0.195857348086813</v>
       </c>
       <c r="G5" t="n">
-        <v>0.306222196412839</v>
+        <v>0.07066425310447204</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03663162591694889</v>
+        <v>0.3424639521839857</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>sda</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>ave</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4166258433993495</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50.20457869572414</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36.5780526929817</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.034047871948311</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8155484133320611</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.931500939737228</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02654165461781827</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.472388177212755</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.057099091594327</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0953846791847875</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.04925479961884688</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.5624425900075766</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>sdb</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>ave</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1892146296970338</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.827096842800856</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.918780253668094</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.75446688346356</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10.48904016372678</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.439158865997759</v>
-      </c>
-      <c r="I8" t="n">
-        <v>54.82645265232387</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03950529753114395</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4139445177857045</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2401255593003083</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.195857348086813</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.07066425310447204</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.3424639521839857</v>
-      </c>
-      <c r="I9" t="n">
         <v>0.2906791818802812</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>dig</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>ave</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>12.76842496145518</v>
-      </c>
-      <c r="D10" t="n">
-        <v>48.14418724173226</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.823361708821122</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-64.73597391200856</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>65.49215860560695</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1876164450945517</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.01207703290156</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.206688049050415</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.062985535424955</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.050033687052401</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="2">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
